--- a/grupos/4ARHM - Estadisticos 20242.xlsx
+++ b/grupos/4ARHM - Estadisticos 20242.xlsx
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <v>10</v>
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1069,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>9</v>
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1158,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>9</v>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="X8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y8">
         <v>9</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1336,7 +1336,7 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -1425,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>9</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1556,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>10</v>
@@ -1692,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1781,7 +1781,7 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <v>10</v>
@@ -1912,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y16">
         <v>10</v>
@@ -1959,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="X17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y17">
         <v>9</v>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2137,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -2226,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2404,7 +2404,7 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>9</v>
@@ -2493,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2535,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="X23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -2582,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -2624,7 +2624,7 @@
         <v>10</v>
       </c>
       <c r="X24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -2671,7 +2671,7 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2760,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -2849,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2891,7 +2891,7 @@
         <v>9</v>
       </c>
       <c r="X27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y27">
         <v>9</v>
@@ -2938,7 +2938,7 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3027,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3069,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>7</v>
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>6</v>
@@ -3158,7 +3158,7 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>5</v>
@@ -3205,7 +3205,7 @@
         <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -3247,7 +3247,7 @@
         <v>9</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y31">
         <v>9</v>
@@ -3294,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3336,7 +3336,7 @@
         <v>10</v>
       </c>
       <c r="X32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y32">
         <v>9</v>
@@ -3383,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>10</v>
@@ -3472,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3514,7 +3514,7 @@
         <v>9</v>
       </c>
       <c r="X34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y34">
         <v>8</v>
@@ -3561,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>10</v>
@@ -3650,7 +3650,7 @@
         <v>9</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -3692,7 +3692,7 @@
         <v>10</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y36">
         <v>9</v>
@@ -3739,7 +3739,7 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3828,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K38">
         <v>6</v>
@@ -3870,7 +3870,7 @@
         <v>5</v>
       </c>
       <c r="X38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y38">
         <v>5</v>
@@ -3917,7 +3917,7 @@
         <v>6</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -3959,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="X39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y39">
         <v>8</v>
@@ -4006,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y40">
         <v>8</v>
@@ -4095,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -4184,7 +4184,7 @@
         <v>8</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -4226,7 +4226,7 @@
         <v>8</v>
       </c>
       <c r="X42">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y42">
         <v>9</v>
@@ -4273,7 +4273,7 @@
         <v>10</v>
       </c>
       <c r="J43">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K43">
         <v>10</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
